--- a/修了式/list.xlsx
+++ b/修了式/list.xlsx
@@ -1,15 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code4biz\修了式\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8CA4F0-14AA-45AE-9080-50B2C9AC8771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3870" yWindow="1815" windowWidth="22320" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
   <si>
     <t>肩書き</t>
   </si>
@@ -27,9 +38,6 @@
   </si>
   <si>
     <t>参加</t>
-  </si>
-  <si>
-    <t>写真配布リスト</t>
   </si>
   <si>
     <t>祝辞</t>
@@ -63,9 +71,6 @@
     <t>http://www.okinawa.med.or.jp/html/ishikai.html</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>招待対象施設</t>
   </si>
   <si>
@@ -83,9 +88,6 @@
   </si>
   <si>
     <t>欠席</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>病院事業局長</t>
@@ -193,9 +195,6 @@
     <t>http://www.hosp.pref.okinawa.jp/seiwa/aisatsu.html</t>
   </si>
   <si>
-    <t>配布</t>
-  </si>
-  <si>
     <t>yara-kazuo@hosp.pref.okinawa.jp</t>
   </si>
   <si>
@@ -371,33 +370,25 @@
   </si>
   <si>
     <t>900-0005</t>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>写真配布</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="16">
-    <numFmt formatCode="@" numFmtId="165"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="166"/>
-    <numFmt formatCode="[hh]:mm:ss" numFmtId="167"/>
-    <numFmt formatCode="@" numFmtId="168"/>
-    <numFmt formatCode="@" numFmtId="169"/>
-    <numFmt formatCode="@" numFmtId="170"/>
-    <numFmt formatCode="@" numFmtId="171"/>
-    <numFmt formatCode="@" numFmtId="172"/>
-    <numFmt formatCode="@" numFmtId="173"/>
-    <numFmt formatCode="@" numFmtId="174"/>
-    <numFmt formatCode="@" numFmtId="175"/>
-    <numFmt formatCode="@" numFmtId="176"/>
-    <numFmt formatCode="@" numFmtId="177"/>
-    <numFmt formatCode="@" numFmtId="178"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS PGothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -405,8 +396,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS PGothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -427,614 +425,917 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="172" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="173" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="174" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="175" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="176" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="177" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="178" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetFormatPr baseColWidth="21" defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="9" max="9" width="22" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="1">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="6">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="9">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s" s="11">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="12">
+      <c r="G2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="3">
+        <v>988880087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s" s="15">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="17">
-        <v>988880087</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="6">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="G3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s" s="11">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="6">
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="6">
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s" s="8">
+      <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s" s="9">
+      <c r="G5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s" s="10">
+      <c r="L5" s="3">
+        <v>980522719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s" s="11">
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s" s="16">
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="17">
-        <v>980522719</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="6">
+      <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="3">
+        <v>988880123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="9">
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s" s="10">
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s" s="11">
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="L6" s="17">
-        <v>988880123</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s" s="8">
+      <c r="G7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="L7" s="3">
+        <v>-980723151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s" s="10">
+      <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s" s="11">
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J7" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s" s="16">
-        <v>45</v>
-      </c>
-      <c r="L7" s="17">
-        <v>-980723151</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s" s="8">
+      <c r="G8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s" s="9">
+      <c r="L8" s="3">
+        <v>980875557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s" s="10">
+      <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s" s="11">
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J8" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s" s="16">
-        <v>51</v>
-      </c>
-      <c r="L8" s="17">
-        <v>980875557</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="6">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s" s="7">
+      <c r="G9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s" s="8">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D9" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s" s="10">
+      <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s" s="11">
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="3">
+        <v>989682133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="3">
+        <v>989752525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="3">
+        <v>-989782918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-988700061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s" s="12">
-        <v>56</v>
-      </c>
-      <c r="J9" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s" s="16">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="6">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s" s="9">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="J10" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="L10" s="17">
-        <v>989682133</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="6">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s" s="8">
-        <v>66</v>
-      </c>
-      <c r="D11" t="s" s="9">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s" s="16">
-        <v>69</v>
-      </c>
-      <c r="L11" s="17">
-        <v>989752525</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="6">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s" s="7">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s" s="8">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s" s="9">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s" s="10">
-        <v>74</v>
-      </c>
-      <c r="J12" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="L12" s="17">
-        <v>-989782918</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="6">
-        <v>75</v>
-      </c>
-      <c r="B13" t="s" s="7">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s" s="8">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s" s="9">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s" s="11">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s" s="16">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="6">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s" s="7">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s" s="8">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s" s="10">
-        <v>84</v>
-      </c>
-      <c r="G14" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="L14" s="17">
-        <v>-988700061</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="6">
+      <c r="J15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="L15" s="3">
+        <v>988338538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C15" t="s" s="8">
+      <c r="B16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D15" t="s" s="9">
+      <c r="C16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F15" t="s" s="11">
+      <c r="D16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J15" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s" s="16">
-        <v>89</v>
-      </c>
-      <c r="L15" s="17">
-        <v>988338538</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="6">
-        <v>90</v>
-      </c>
-      <c r="B16" t="s" s="7">
-        <v>91</v>
-      </c>
-      <c r="C16" t="s" s="8">
-        <v>92</v>
-      </c>
-      <c r="D16" t="s" s="9">
-        <v>93</v>
-      </c>
-      <c r="F16" t="s" s="11">
-        <v>33</v>
-      </c>
-      <c r="J16" t="s" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="6">
+      <c r="H17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C17" t="s" s="8">
+      <c r="C18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D17" t="s" s="9">
+      <c r="D18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F17" t="s" s="11">
-        <v>5</v>
-      </c>
-      <c r="H17" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="J17" t="s" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="6">
+      <c r="F18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="C19" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C18" t="s" s="8">
+      <c r="D19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D18" t="s" s="9">
+      <c r="F19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F18" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="J18" t="s" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="6">
-        <v>98</v>
-      </c>
-      <c r="B19" t="s" s="7">
+      <c r="C20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C19" t="s" s="8">
+      <c r="D20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s" s="9">
+      <c r="F20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F19" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="J19" t="s" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="6">
-        <v>98</v>
-      </c>
-      <c r="B20" t="s" s="7">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C20" t="s" s="8">
+      <c r="C21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D20" t="s" s="9">
+      <c r="D21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F20" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="J20" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="K20" t="s" s="16">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="6">
-        <v>98</v>
-      </c>
-      <c r="B21" t="s" s="7">
-        <v>109</v>
-      </c>
-      <c r="C21" t="s" s="8">
-        <v>110</v>
-      </c>
-      <c r="D21" t="s" s="9">
-        <v>111</v>
-      </c>
-      <c r="F21" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="J21" t="s" s="15">
-        <v>18</v>
+      <c r="F21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>